--- a/kody.xlsx
+++ b/kody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jedre\Desktop\barcode_obrazy_projekt\barcode_zrpo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314347E4-75A1-454F-99E9-F136732F69D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2383AC8-172F-4AC6-86DD-7A4AEBE3E71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{33CBAFEB-CE1A-4442-A76B-A5DD76F94DCD}"/>
+    <workbookView xWindow="6900" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{33CBAFEB-CE1A-4442-A76B-A5DD76F94DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="D6:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -593,7 +593,7 @@
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/kody.xlsx
+++ b/kody.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jedre\Desktop\barcode_obrazy_projekt\barcode_zrpo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2383AC8-172F-4AC6-86DD-7A4AEBE3E71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D026CB5-F2C0-4EC9-A9AD-5D2BDE9EDF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{33CBAFEB-CE1A-4442-A76B-A5DD76F94DCD}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33CBAFEB-CE1A-4442-A76B-A5DD76F94DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -216,16 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -559,7 +556,7 @@
   <dimension ref="D6:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,78 +571,78 @@
       </c>
     </row>
     <row r="8" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="4:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
